--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.2/avg_0.003_scores.xlsx
@@ -124,12 +124,12 @@
     <t>support</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -142,13 +142,13 @@
     <t>hope</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>join</t>
   </si>
   <si>
     <t>hand</t>
@@ -1390,25 +1390,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.748898678414097</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L25">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="M25">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="N25">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O25">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1416,25 +1416,25 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.7333333333333333</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L26">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="M26">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1546,25 +1546,25 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.6257668711656442</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L31">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="M31">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1572,25 +1572,25 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.6153846153846154</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="L32">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="N32">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O32">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1598,25 +1598,25 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.6097560975609756</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="N33">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="10:17">
